--- a/biology/Médecine/Louis_Justin-Besançon/Louis_Justin-Besançon.xlsx
+++ b/biology/Médecine/Louis_Justin-Besançon/Louis_Justin-Besançon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Justin-Besan%C3%A7on</t>
+          <t>Louis_Justin-Besançon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Justin Louis Eugène Besançon, dit Louis Justin-Besançon, né le 3 juin 1901 dans le 1er arrondissement de Paris et mort le 26 décembre 1989, est un médecin français, professeur de médecine de la Faculté de Paris, chef  de service à l'hôpital Bichat.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Justin-Besan%C3%A7on</t>
+          <t>Louis_Justin-Besançon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Justin Louis Eugène Besançon est né le 3 juin 1901 dans le 1er arrondissement de Paris du mariage de Marie Émile Hippolyte Julien Besançon (1862-1952), docteur en médecine, et de Jenny Pauline Julie Boitard (1872-1944).
-De son mariage le 19 octobre 1926 avec Madeleine Marie Louise Delagrange (1903-1972) - cousine du pharmacien Jacques Delagrange et copropriétaire avec ce dernier de la SAP, Société d'application pharmacodynamique, devenue ensuite les Laboratoires Delagrange de Chilly-Mazarin commercialisant le Primpéran[1] - sont nés cinq enfants.
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justin Louis Eugène Besançon est né le 3 juin 1901 dans le 1er arrondissement de Paris du mariage de Marie Émile Hippolyte Julien Besançon (1862-1952), docteur en médecine, et de Jenny Pauline Julie Boitard (1872-1944).
+De son mariage le 19 octobre 1926 avec Madeleine Marie Louise Delagrange (1903-1972) - cousine du pharmacien Jacques Delagrange et copropriétaire avec ce dernier de la SAP, Société d'application pharmacodynamique, devenue ensuite les Laboratoires Delagrange de Chilly-Mazarin commercialisant le Primpéran - sont nés cinq enfants.
 Louis-Justin Besançon épouse Madeleine Marie Louise Delagrange
 Claire Besançon épouse André Bourguignon (1920-1996)
 Anne Madeleine Louise Bourguignon dite Anémone (1950-2019)
@@ -525,10 +542,6 @@
 Laure Besançon (1939-2014)
 Lise Besançon
 Mort le 26 décembre 1989 dans le 7e arrondissement de Paris, il est inhumé au cimetière du Père-Lachaise (82e division).
-Carrière professionnelle
-Il est l'élève de Maurice Villaret avec qui il publie de nombreux travaux sur l'acétylcholine[2].
-Il est membre du comité médical de la Résistance avec Gabriel Richet. Il est le cofondateur en 1947 des Entretiens de Bichat avec Guy Laroche[3].
-Il est devenu l'un des grands patrons de l'industrie pharmaceutique française (les laboratoires Delagrange) [4].
 </t>
         </is>
       </c>
@@ -539,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Justin-Besan%C3%A7on</t>
+          <t>Louis_Justin-Besançon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,10 +567,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'élève de Maurice Villaret avec qui il publie de nombreux travaux sur l'acétylcholine.
+Il est membre du comité médical de la Résistance avec Gabriel Richet. Il est le cofondateur en 1947 des Entretiens de Bichat avec Guy Laroche.
+Il est devenu l'un des grands patrons de l'industrie pharmaceutique française (les laboratoires Delagrange) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Justin-Besançon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Justin-Besan%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Effets thérapeutiques de l'acétylcholine avec Maurice Villaret (1928)
 Sur certains points de physiologie pathologique concernant les affections vasculaires périphériques avec Maurice Villaret (1928)
@@ -569,45 +623,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Louis_Justin-Besan%C3%A7on</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Louis_Justin-Besan%C3%A7on</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Membre de l'Académie nationale de médecine[5].
-Président de la Croix-Rouge française.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Louis_Justin-Besan%C3%A7on</t>
+          <t>Louis_Justin-Besançon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,10 +644,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Membre de l'Académie nationale de médecine.
+Président de la Croix-Rouge française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Justin-Besançon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Justin-Besan%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maxime Laignel-Lavastine, Bull. Ac. Méd., 137, 32/33, 539-543, 1953.</t>
         </is>
